--- a/tables/DE/exp3/DE_table2_F9_dim10.xlsx
+++ b/tables/DE/exp3/DE_table2_F9_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>168.80113634</v>
       </c>
       <c r="AZ2" t="n">
-        <v>159.87562817</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>137.98197695</v>
+        <v>137.54410392</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>96.72539611000001</v>
@@ -1011,15 +1002,12 @@
         <v>162.26995499</v>
       </c>
       <c r="AZ3" t="n">
-        <v>155.42704498</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>123.70616087</v>
+        <v>123.07174318</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>57.92038443</v>
@@ -1172,15 +1160,12 @@
         <v>65.5828637</v>
       </c>
       <c r="AZ4" t="n">
-        <v>56.56741273</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>66.71183422999999</v>
+        <v>66.91472266</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>20.23489809</v>
@@ -1333,15 +1318,12 @@
         <v>13.8444781</v>
       </c>
       <c r="AZ5" t="n">
-        <v>30.65256104</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>20.43388659</v>
+        <v>20.2295131</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>14.93802506</v>
@@ -1494,15 +1476,12 @@
         <v>10.50182804</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14.27099634</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>12.42910491</v>
+        <v>12.39226708</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>9.38576044</v>
@@ -1655,15 +1634,12 @@
         <v>8.53655521</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7.16274781</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>8.41836824</v>
+        <v>8.443480640000001</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>6.18722342</v>
@@ -1816,15 +1792,12 @@
         <v>5.05793375</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7.02632185</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>6.77021989</v>
+        <v>6.76509785</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>4.96205135</v>
@@ -1977,15 +1950,12 @@
         <v>3.07017851</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.83534236</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>5.30439451</v>
+        <v>5.29377555</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>3.93488857</v>
@@ -2138,15 +2108,12 @@
         <v>2.57687624</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.05930795</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.10916125</v>
+        <v>4.09015832</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>3.91479543</v>
@@ -2299,15 +2266,12 @@
         <v>2.14003725</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3.63848042</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>3.25593377</v>
+        <v>3.24828284</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>3.6951665</v>
@@ -2460,15 +2424,12 @@
         <v>2.11112368</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.18050783</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2.76346032</v>
+        <v>2.75511937</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>3.45333424</v>
@@ -2621,15 +2582,12 @@
         <v>1.00782102</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.09561736</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>2.34734915</v>
+        <v>2.35238379</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>3.07467723</v>
@@ -2782,10 +2740,7 @@
         <v>1.00779907</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.19412339</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>1.98854933</v>
+        <v>2.02443784</v>
       </c>
     </row>
   </sheetData>
